--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H2">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I2">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J2">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N2">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O2">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P2">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q2">
-        <v>18714.61476652593</v>
+        <v>7628.042025080263</v>
       </c>
       <c r="R2">
-        <v>168431.5328987334</v>
+        <v>68652.37822572236</v>
       </c>
       <c r="S2">
-        <v>0.2723561464320198</v>
+        <v>0.4853013007108309</v>
       </c>
       <c r="T2">
-        <v>0.3501470946753547</v>
+        <v>0.5153572349108544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H3">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I3">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J3">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P3">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q3">
-        <v>2523.92274151416</v>
+        <v>1982.386358204032</v>
       </c>
       <c r="R3">
-        <v>22715.30467362744</v>
+        <v>17841.47722383629</v>
       </c>
       <c r="S3">
-        <v>0.0367309656301593</v>
+        <v>0.1261207889239049</v>
       </c>
       <c r="T3">
-        <v>0.04722214302305366</v>
+        <v>0.1339317676449585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H4">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I4">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J4">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N4">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O4">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P4">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q4">
-        <v>131.79395273226</v>
+        <v>129.8585197006436</v>
       </c>
       <c r="R4">
-        <v>1186.14557459034</v>
+        <v>1168.726677305792</v>
       </c>
       <c r="S4">
-        <v>0.001918013997990803</v>
+        <v>0.008261688689168212</v>
       </c>
       <c r="T4">
-        <v>0.002465841280768633</v>
+        <v>0.008773355917875425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H5">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I5">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J5">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N5">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O5">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P5">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q5">
-        <v>18885.33969253816</v>
+        <v>1441.330399064043</v>
       </c>
       <c r="R5">
-        <v>113312.038155229</v>
+        <v>8647.982394384257</v>
       </c>
       <c r="S5">
-        <v>0.2748407277888187</v>
+        <v>0.09169843521050619</v>
       </c>
       <c r="T5">
-        <v>0.2355608850015681</v>
+        <v>0.06491836713469841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H6">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I6">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J6">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N6">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O6">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P6">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q6">
-        <v>819.65583025578</v>
+        <v>15.83982777606044</v>
       </c>
       <c r="R6">
-        <v>7376.902472302019</v>
+        <v>142.558449984544</v>
       </c>
       <c r="S6">
-        <v>0.01192855456091457</v>
+        <v>0.001007740780331739</v>
       </c>
       <c r="T6">
-        <v>0.01533561396685132</v>
+        <v>0.001070152709869052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J7">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N7">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O7">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P7">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q7">
-        <v>4866.760554972278</v>
+        <v>2525.572971364003</v>
       </c>
       <c r="R7">
-        <v>43800.8449947505</v>
+        <v>22730.15674227603</v>
       </c>
       <c r="S7">
-        <v>0.07082657948858566</v>
+        <v>0.160678696317247</v>
       </c>
       <c r="T7">
-        <v>0.09105621943403198</v>
+        <v>0.1706299334492783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J8">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.115256</v>
       </c>
       <c r="O8">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P8">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q8">
         <v>656.3494784925681</v>
       </c>
       <c r="R8">
-        <v>5907.145306433113</v>
+        <v>5907.145306433112</v>
       </c>
       <c r="S8">
-        <v>0.009551936649780466</v>
+        <v>0.04175740702345793</v>
       </c>
       <c r="T8">
-        <v>0.01228018133704385</v>
+        <v>0.04434354861430538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J9">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N9">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O9">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P9">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q9">
-        <v>34.27319335947578</v>
+        <v>42.99493452958978</v>
       </c>
       <c r="R9">
-        <v>308.458740235282</v>
+        <v>386.954410766308</v>
       </c>
       <c r="S9">
-        <v>0.0004987821008211498</v>
+        <v>0.002735367422279952</v>
       </c>
       <c r="T9">
-        <v>0.0006412453170840682</v>
+        <v>0.002904775629380392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J10">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N10">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O10">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P10">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q10">
-        <v>4911.157799907987</v>
+        <v>477.2109391522573</v>
       </c>
       <c r="R10">
-        <v>29466.94679944793</v>
+        <v>2863.265634913544</v>
       </c>
       <c r="S10">
-        <v>0.07147269818746034</v>
+        <v>0.03036048945752771</v>
       </c>
       <c r="T10">
-        <v>0.0612579226301011</v>
+        <v>0.02149386078909999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J11">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N11">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O11">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P11">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q11">
-        <v>213.1525929391273</v>
+        <v>5.244418000156222</v>
       </c>
       <c r="R11">
-        <v>1918.373336452146</v>
+        <v>47.19976200140599</v>
       </c>
       <c r="S11">
-        <v>0.003102036538776714</v>
+        <v>0.0003336534943802082</v>
       </c>
       <c r="T11">
-        <v>0.003988046885883547</v>
+        <v>0.0003543174972543212</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H12">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I12">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J12">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N12">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O12">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P12">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q12">
-        <v>40.68317279773845</v>
+        <v>20.31144945575822</v>
       </c>
       <c r="R12">
-        <v>366.148555179646</v>
+        <v>182.803045101824</v>
       </c>
       <c r="S12">
-        <v>0.0005920673391385498</v>
+        <v>0.001292228439197416</v>
       </c>
       <c r="T12">
-        <v>0.0007611748857787423</v>
+        <v>0.001372259407346539</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H13">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I13">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J13">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.115256</v>
       </c>
       <c r="O13">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P13">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q13">
-        <v>5.486684406928001</v>
+        <v>5.278568233376001</v>
       </c>
       <c r="R13">
-        <v>49.38015966235201</v>
+        <v>47.50711410038401</v>
       </c>
       <c r="S13">
-        <v>7.984840940634343E-05</v>
+        <v>0.0003358261557979935</v>
       </c>
       <c r="T13">
-        <v>0.0001026548838142631</v>
+        <v>0.0003566247170763726</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H14">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I14">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J14">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N14">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O14">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P14">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q14">
-        <v>0.2865031537968889</v>
+        <v>0.3457787398951112</v>
       </c>
       <c r="R14">
-        <v>2.578528384172</v>
+        <v>3.112008659056</v>
       </c>
       <c r="S14">
-        <v>4.169516491908328E-06</v>
+        <v>2.199868218836719E-05</v>
       </c>
       <c r="T14">
-        <v>5.360422758834563E-06</v>
+        <v>2.336111608947631E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H15">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I15">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J15">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N15">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O15">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P15">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q15">
-        <v>41.05430689547367</v>
+        <v>3.837879950501334</v>
       </c>
       <c r="R15">
-        <v>246.325841372842</v>
+        <v>23.027279703008</v>
       </c>
       <c r="S15">
-        <v>0.0005974685004197047</v>
+        <v>0.0002441685724628292</v>
       </c>
       <c r="T15">
-        <v>0.0005120791589067795</v>
+        <v>0.000172860365539597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H16">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I16">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J16">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N16">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O16">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P16">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q16">
-        <v>1.781826673590667</v>
+        <v>0.04217725337688889</v>
       </c>
       <c r="R16">
-        <v>16.036440062316</v>
+        <v>0.379595280392</v>
       </c>
       <c r="S16">
-        <v>2.593114806172551E-05</v>
+        <v>2.683345982745696E-06</v>
       </c>
       <c r="T16">
-        <v>3.333765833581414E-05</v>
+        <v>2.849532370820838E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H17">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I17">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J17">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N17">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O17">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P17">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q17">
-        <v>7643.419760549279</v>
+        <v>517.3452016130346</v>
       </c>
       <c r="R17">
-        <v>45860.51856329568</v>
+        <v>3104.071209678208</v>
       </c>
       <c r="S17">
-        <v>0.1112356507209042</v>
+        <v>0.03291385894752868</v>
       </c>
       <c r="T17">
-        <v>0.09533801099404417</v>
+        <v>0.02330153152635842</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H18">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I18">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J18">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.115256</v>
       </c>
       <c r="O18">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P18">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q18">
-        <v>1030.820094202248</v>
+        <v>134.448403245288</v>
       </c>
       <c r="R18">
-        <v>6184.920565213489</v>
+        <v>806.6904194717281</v>
       </c>
       <c r="S18">
-        <v>0.01500165469736425</v>
+        <v>0.008553700249540254</v>
       </c>
       <c r="T18">
-        <v>0.01285763971529848</v>
+        <v>0.006055634994043975</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H19">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I19">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J19">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N19">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O19">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P19">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q19">
-        <v>53.827263622678</v>
+        <v>8.807198732625334</v>
       </c>
       <c r="R19">
-        <v>322.963581736068</v>
+        <v>52.843192395752</v>
       </c>
       <c r="S19">
-        <v>0.0007833549488539356</v>
+        <v>0.0005603200646389837</v>
       </c>
       <c r="T19">
-        <v>0.0006713989826288703</v>
+        <v>0.0003966814001315027</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H20">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I20">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J20">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N20">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O20">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P20">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q20">
-        <v>7713.1472056172</v>
+        <v>97.75318010088399</v>
       </c>
       <c r="R20">
-        <v>30852.5888224688</v>
+        <v>391.012720403536</v>
       </c>
       <c r="S20">
-        <v>0.112250403013493</v>
+        <v>0.006219124815464026</v>
       </c>
       <c r="T20">
-        <v>0.06413849089585776</v>
+        <v>0.002935240404048173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H21">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I21">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J21">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N21">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O21">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P21">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q21">
-        <v>334.763693935734</v>
+        <v>1.074280774460667</v>
       </c>
       <c r="R21">
-        <v>2008.582163614404</v>
+        <v>6.445684646764</v>
       </c>
       <c r="S21">
-        <v>0.004871858212586111</v>
+        <v>6.834648464969813E-05</v>
       </c>
       <c r="T21">
-        <v>0.004175579221434554</v>
+        <v>4.838623660992174E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H22">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I22">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J22">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N22">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O22">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P22">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q22">
-        <v>41.67458280691278</v>
+        <v>16.40604906224355</v>
       </c>
       <c r="R22">
-        <v>375.071245262215</v>
+        <v>147.654441560192</v>
       </c>
       <c r="S22">
-        <v>0.0006064954539034779</v>
+        <v>0.00104376416952799</v>
       </c>
       <c r="T22">
-        <v>0.0007797239897103591</v>
+        <v>0.001108407118462446</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H23">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I23">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J23">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.115256</v>
       </c>
       <c r="O23">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P23">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q23">
-        <v>5.620389658120001</v>
+        <v>4.263627251408</v>
       </c>
       <c r="R23">
-        <v>50.58350692308</v>
+        <v>38.372645262672</v>
       </c>
       <c r="S23">
-        <v>8.179423877161111E-05</v>
+        <v>0.0002712549097201226</v>
       </c>
       <c r="T23">
-        <v>0.0001051564851473269</v>
+        <v>0.0002880544107848007</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H24">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I24">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J24">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N24">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O24">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P24">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q24">
-        <v>0.2934849616255555</v>
+        <v>0.2792938526497778</v>
       </c>
       <c r="R24">
-        <v>2.64136465463</v>
+        <v>2.513644673848</v>
       </c>
       <c r="S24">
-        <v>4.271123620832283E-06</v>
+        <v>1.776886775476963E-05</v>
       </c>
       <c r="T24">
-        <v>5.491051134426987E-06</v>
+        <v>1.886933857416374E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H25">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I25">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J25">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N25">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O25">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P25">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q25">
-        <v>42.05476108763417</v>
+        <v>3.099948474877333</v>
       </c>
       <c r="R25">
-        <v>252.328566525805</v>
+        <v>18.599690849264</v>
       </c>
       <c r="S25">
-        <v>0.0006120282363190493</v>
+        <v>0.0001972208624504395</v>
       </c>
       <c r="T25">
-        <v>0.0005245580382251097</v>
+        <v>0.0001396234987629601</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H26">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I26">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J26">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N26">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O26">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P26">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q26">
-        <v>1.825248085376667</v>
+        <v>0.03406758782622223</v>
       </c>
       <c r="R26">
-        <v>16.42723276839</v>
+        <v>0.306608290436</v>
       </c>
       <c r="S26">
-        <v>2.656306533783347E-05</v>
+        <v>2.167403460781557E-06</v>
       </c>
       <c r="T26">
-        <v>3.415006518325642E-05</v>
+        <v>2.30163622650202E-06</v>
       </c>
     </row>
   </sheetData>
